--- a/results/rmse-freq-c3_2_1-k10-n1_5/rmse-freq-c3_2_1-k10-n1_5.xlsx
+++ b/results/rmse-freq-c3_2_1-k10-n1_5/rmse-freq-c3_2_1-k10-n1_5.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Weights" sheetId="6" r:id="rId2"/>
     <sheet name="Diameter" sheetId="5" r:id="rId3"/>
     <sheet name="WeightsDiameter" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,12 +23,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>StdDev</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Feature0</t>
+  </si>
+  <si>
+    <t>Feature1</t>
+  </si>
+  <si>
+    <t>RMSE/Y</t>
   </si>
 </sst>
 </file>
@@ -79,8 +98,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -89,11 +120,23 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,11 +528,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2130764744"/>
-        <c:axId val="-2135891944"/>
+        <c:axId val="2106447848"/>
+        <c:axId val="2106368200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2130764744"/>
+        <c:axId val="2106447848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135891944"/>
+        <c:crossAx val="2106368200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -526,7 +569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135891944"/>
+        <c:axId val="2106368200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130764744"/>
+        <c:crossAx val="2106447848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,11 +1000,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2125088280"/>
-        <c:axId val="-2125082888"/>
+        <c:axId val="2128967208"/>
+        <c:axId val="2128972648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125088280"/>
+        <c:axId val="2128967208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125082888"/>
+        <c:crossAx val="2128972648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,7 +1041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125082888"/>
+        <c:axId val="2128972648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1029,7 +1072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125088280"/>
+        <c:crossAx val="2128967208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,11 +1473,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2125044936"/>
-        <c:axId val="-2125039544"/>
+        <c:axId val="2129022760"/>
+        <c:axId val="2129028152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125044936"/>
+        <c:axId val="2129022760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125039544"/>
+        <c:crossAx val="2129028152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,7 +1514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125039544"/>
+        <c:axId val="2129028152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1502,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125044936"/>
+        <c:crossAx val="2129022760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,11 +1946,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2124927048"/>
-        <c:axId val="-2124483160"/>
+        <c:axId val="2117274936"/>
+        <c:axId val="2117280376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124927048"/>
+        <c:axId val="2117274936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124483160"/>
+        <c:crossAx val="2117280376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1944,7 +1987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124483160"/>
+        <c:axId val="2117280376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1975,7 +2018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124927048"/>
+        <c:crossAx val="2117274936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,16 +2039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2031,15 +2074,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2068,16 +2111,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2105,15 +2148,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2460,437 +2503,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>371.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>570</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>773</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1004.9000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>806</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1128.3999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>851</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1276.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>907</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1451.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>828</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1407.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>758</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1364.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>693</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1316.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>606</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>463</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>972.30000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>403</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>886.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>334</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>768.19999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>595.19999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>147</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>382.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>361.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>269.7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>226.3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.57666747368299998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>115.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.7934876264903312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>105.39999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>80.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>2.3557192992429917E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>111.60000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>51.800000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>45.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>30.099999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9981</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.57666747368299998</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2907,437 +3167,651 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>343.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>527</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>632.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>728</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>946.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>953</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1334.1999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>937</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1405.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>934</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1494.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>867</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1473.8999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>761</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1369.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>690</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>652</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>521</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1094.1000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>409</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>899.80000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>347</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>798.09999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>580.79999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>174</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>358.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>106</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>286.20000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>246.39999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>214.6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>142.6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.51766504221200005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>108.80000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.7723468161794149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>2.3279511596051856E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>24.599999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.51766504221200005</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3354,437 +3828,651 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>328</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>360.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>603</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>723.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>811</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1054.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>910</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>958</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>914</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1462.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>848</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1441.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>750</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>730</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>605</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>490</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>396</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>871.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>333</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>765.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>530.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>181</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>452.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>322.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>305.10000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>226.79999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>179.79999999999998</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>102.3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.50254597660699996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>105.60000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>79.199999999999989</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.7474184510706425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>71.399999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>2.29520812312256E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>22.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>25.799999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.50254597660699996</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3801,437 +4489,651 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1">
+        <f>A1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f t="shared" ref="C2:C51" si="0">A2*B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>0.6</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>0.7</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1.1000000000000001</v>
       </c>
       <c r="B12">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>371.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>1.2</v>
       </c>
       <c r="B13">
         <v>624</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>748.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>1.3</v>
       </c>
       <c r="B14">
         <v>798</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1037.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>1.4</v>
       </c>
       <c r="B15">
         <v>911</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1275.3999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>1.5</v>
       </c>
       <c r="B16">
         <v>905</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1357.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.6</v>
       </c>
       <c r="B17">
         <v>944</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1510.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1.7</v>
       </c>
       <c r="B18">
         <v>926</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1574.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>1.8</v>
       </c>
       <c r="B19">
         <v>742</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1335.6000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1.9</v>
       </c>
       <c r="B20">
         <v>690</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>599</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>2.1</v>
       </c>
       <c r="B22">
         <v>506</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1062.6000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>2.2000000000000002</v>
       </c>
       <c r="B23">
         <v>383</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>842.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
       <c r="B24">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>745.19999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>2.4</v>
       </c>
       <c r="B25">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>496.79999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>2.5</v>
       </c>
       <c r="B26">
         <v>182</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>2.6</v>
       </c>
       <c r="B27">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>348.40000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>2.7</v>
       </c>
       <c r="B28">
         <v>102</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>275.40000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>2.8</v>
       </c>
       <c r="B29">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>198.79999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>2.9</v>
       </c>
       <c r="B30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>SUM(B1:B51)</f>
+        <v>9992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>3.1</v>
       </c>
       <c r="B32">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>139.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.50336339399999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>3.3</v>
       </c>
       <c r="B34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>89.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f>SUM(C1:C51)/SUM(B1:B51)</f>
+        <v>1.7462169735788631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>3.4</v>
       </c>
       <c r="B35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>3.5</v>
       </c>
       <c r="B36">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <f>F34/AVERAGE(Data!B2:B16)</f>
+        <v>2.2936300003224993E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>3.6</v>
       </c>
       <c r="B37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>3.7</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>3.8</v>
       </c>
       <c r="B39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>53.199999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>3.9</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>4.0999999999999996</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>24.599999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>4.2</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>4.3</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>12.899999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>4.4000000000000004</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>4.5</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>4.5999999999999996</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>4.7</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.8</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>4.9000000000000004</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <f>SUM(B1:B51)</f>
-        <v>9992</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>0.50336339399999996</v>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4244,4 +5146,248 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>65.5</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>63.7</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>114.8</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52.9</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>105.1</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>98.9</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>55.2</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>102.3</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>88.4</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>42.5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>